--- a/biology/Botanique/Dorstenia_involuta/Dorstenia_involuta.xlsx
+++ b/biology/Botanique/Dorstenia_involuta/Dorstenia_involuta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dorstenia involuta Hijman &amp; C.C. Berg est une espèce de plantes à fleurs de la famille des Moraceae et du genre Dorstenia, endémique du Cameroun.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un arbuste de 0,5 à 2 m de hauteur[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbuste de 0,5 à 2 m de hauteur.
 Ses tiges sont ramifiées ou non, la base des rameaux inférieurs ligneuse et glabre, la partie feuillée est pubérulente. Les feuilles sont distiques, acuminées à l'apex et à marge entière ou sinuée ou dentée. La limbe est obovale, parfois linéaire. Les nervures sont proéminentes et les stipules caduques et triangulaires. Ses inflorescences sont solitaires, son pédoncule pubérulent. Les fleurs mâles sont plus nombreuses et les fleurs femelles à périanthe tubulaire. Son noyau est d’environ 10 mm de diamètre, lisse.
 </t>
         </is>
@@ -543,9 +557,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est présente dans les forêts côtières de basse altitude[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est présente dans les forêts côtières de basse altitude.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Endémique, assez rare, l'espèce a été observée au sud du Cameroun, notamment dans la réserve forestière de Kienké, à Bidou I, Bidou II, Bipaga II et sur l'île de Dipikar[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Endémique, assez rare, l'espèce a été observée au sud du Cameroun, notamment dans la réserve forestière de Kienké, à Bidou I, Bidou II, Bipaga II et sur l'île de Dipikar.
 </t>
         </is>
       </c>
